--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -25,37 +25,49 @@
     <t>Type</t>
   </si>
   <si>
-    <t>测试说明</t>
+    <t>类型</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
+    <t>英文名</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>技能实体id</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>EngName</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Weight</t>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>HPBase</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>SkillId</t>
   </si>
   <si>
     <t>int</t>
@@ -64,10 +76,205 @@
     <t>string</t>
   </si>
   <si>
-    <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>北欧神话中的火巨人</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>血量比较厚的敌人</t>
+  </si>
+  <si>
+    <t>地狱犬加姆</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>身上着火的地狱犬</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>尖刺勇士</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>英勇的维京英雄</t>
+  </si>
+  <si>
+    <t>酒鬼</t>
+  </si>
+  <si>
+    <t>Drunkard</t>
+  </si>
+  <si>
+    <t>抽着雪茄用酒桶喝酒的胖子</t>
+  </si>
+  <si>
+    <t>礌石少年</t>
+  </si>
+  <si>
+    <t>StoneBoy</t>
+  </si>
+  <si>
+    <t>淘气的少年带着流浪猫在城邦中游荡</t>
+  </si>
+  <si>
+    <t>杂技演员</t>
+  </si>
+  <si>
+    <t>Acrobat</t>
+  </si>
+  <si>
+    <t>滑稽小丑表演着高超技术</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>贵族法师</t>
+  </si>
+  <si>
+    <t>呤游诗人</t>
+  </si>
+  <si>
+    <t>Peot</t>
+  </si>
+  <si>
+    <t>凯尔特吟游诗人是各部落中的颂诗歌者</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>勇士武器</t>
+  </si>
+  <si>
+    <t>WarriorWeapon</t>
+  </si>
+  <si>
+    <t>就是普通子弹</t>
+  </si>
+  <si>
+    <t>酒鬼武器</t>
+  </si>
+  <si>
+    <t>DrunkardWeapon</t>
+  </si>
+  <si>
+    <t>礌石少年武器</t>
+  </si>
+  <si>
+    <t>StoneBoyWeapon</t>
+  </si>
+  <si>
+    <t>杂技演员武器</t>
+  </si>
+  <si>
+    <t>AcrobatWeapon</t>
+  </si>
+  <si>
+    <t>法师武器</t>
+  </si>
+  <si>
+    <t>MasterWeapon</t>
+  </si>
+  <si>
+    <t>呤游诗人武器</t>
+  </si>
+  <si>
+    <t>PeotWeapon</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>酒鬼技能</t>
+  </si>
+  <si>
+    <t>DrunkardSkillEffect</t>
+  </si>
+  <si>
+    <t>酒鬼的技能</t>
+  </si>
+  <si>
+    <t>礌石技能</t>
+  </si>
+  <si>
+    <t>StoneBoySkillEffect</t>
+  </si>
+  <si>
+    <t>礌石的技能</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>普通攻击特效</t>
+  </si>
+  <si>
+    <t>EnemyAttackedEffect</t>
+  </si>
+  <si>
+    <t>酒鬼攻击特效</t>
+  </si>
+  <si>
+    <t>DrunkardAttackEffect</t>
+  </si>
+  <si>
+    <t>英雄出场特效</t>
+  </si>
+  <si>
+    <t>HeroSpawnEffect</t>
+  </si>
+  <si>
+    <t>攻速加成特效</t>
+  </si>
+  <si>
+    <t>AddAttackSpeedEffect</t>
+  </si>
+  <si>
+    <t>攻击力加成特效</t>
+  </si>
+  <si>
+    <t>AddAttackDamageEffect</t>
+  </si>
+  <si>
+    <t>法师技能</t>
+  </si>
+  <si>
+    <t>MasterSkillEffect</t>
+  </si>
+  <si>
+    <t>对敌人进行减速</t>
+  </si>
+  <si>
+    <t>礌石少年技能武器</t>
+  </si>
+  <si>
+    <t>StoneBoySkillWeapon</t>
+  </si>
+  <si>
+    <t>对敌人造成范围伤害</t>
+  </si>
+  <si>
+    <t>诗人特效</t>
+  </si>
+  <si>
+    <t>PeotEffect</t>
+  </si>
+  <si>
+    <t>礌石少年攻击特效</t>
   </si>
 </sst>
 </file>
@@ -75,12 +282,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,11 +309,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -116,33 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +334,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,17 +369,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +380,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,14 +399,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,23 +460,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +481,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +672,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,237 +772,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,130 +1289,1036 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J6"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="4.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5">
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="2:13">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="3" t="s">
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1">
+        <v>1101</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1">
+        <v>1102</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1301</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
+        <v>1103</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1302</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1">
+        <v>1104</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1">
+        <v>1105</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1308</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1">
+        <v>1106</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1">
+        <v>1201</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1">
+        <v>1202</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1">
+        <v>1203</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1">
+        <v>1204</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="1">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1">
+        <v>1205</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1">
+        <v>1206</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1">
+        <v>1301</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1">
+        <v>1302</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1">
+        <v>1303</v>
+      </c>
+      <c r="D22" s="1">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1">
+        <v>1304</v>
+      </c>
+      <c r="D23" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>178</v>
-      </c>
-      <c r="J6" s="1">
-        <v>68</v>
-      </c>
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1">
+        <v>1305</v>
+      </c>
+      <c r="D24" s="1">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1">
+        <v>1306</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1">
+        <v>1307</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1">
+        <v>1308</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1">
+        <v>1309</v>
+      </c>
+      <c r="D28" s="1">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1">
+        <v>1310</v>
+      </c>
+      <c r="D29" s="1">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="6432" windowHeight="2316"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -283,8 +283,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -315,8 +315,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,15 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,24 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,32 +405,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,9 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,17 +446,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,9 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,187 +481,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +672,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,45 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -757,178 +772,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,153 +1289,153 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.87962962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.12962962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.37962962962963" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.37962962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.12962962962963" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:12">
       <c r="C6" s="1">
@@ -1456,16 +1453,16 @@
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>20</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>6000</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -1473,7 +1470,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="3"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1489,7 +1486,7 @@
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="1">
@@ -1504,10 +1501,10 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="3"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>1101</v>
       </c>
@@ -1523,7 +1520,7 @@
       <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="1">
@@ -1538,10 +1535,10 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="3"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>1102</v>
       </c>
@@ -1557,7 +1554,7 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="1">
@@ -1572,10 +1569,10 @@
       <c r="L9" s="1">
         <v>1301</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="3"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>1103</v>
       </c>
@@ -1591,7 +1588,7 @@
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="1">
@@ -1606,10 +1603,10 @@
       <c r="L10" s="1">
         <v>1302</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="3"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>1104</v>
       </c>
@@ -1625,7 +1622,7 @@
       <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="1">
@@ -1640,10 +1637,10 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="3"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1105</v>
       </c>
@@ -1659,7 +1656,7 @@
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="1">
@@ -1674,10 +1671,10 @@
       <c r="L12" s="1">
         <v>1308</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>1106</v>
       </c>
@@ -1693,7 +1690,7 @@
       <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="1">
@@ -1708,10 +1705,10 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="3"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>1201</v>
       </c>
@@ -1742,10 +1739,10 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>1202</v>
       </c>
@@ -1776,10 +1773,10 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>1203</v>
       </c>
@@ -1810,10 +1807,10 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="3"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>1204</v>
       </c>
@@ -1844,10 +1841,10 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="3"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>1205</v>
       </c>
@@ -1878,10 +1875,10 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="3"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>1206</v>
       </c>
@@ -1912,10 +1909,10 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>1301</v>
       </c>
@@ -1946,10 +1943,10 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="3"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>1302</v>
       </c>
@@ -1980,10 +1977,10 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="3"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>1303</v>
       </c>
@@ -2014,10 +2011,10 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="3"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>1304</v>
       </c>
@@ -2048,10 +2045,10 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="3"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>1305</v>
       </c>
@@ -2082,10 +2079,10 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="3"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>1306</v>
       </c>
@@ -2116,10 +2113,10 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="3"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>1307</v>
       </c>
@@ -2150,10 +2147,10 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="3"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>1308</v>
       </c>
@@ -2184,10 +2181,10 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="3"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>1309</v>
       </c>
@@ -2218,10 +2215,10 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="3"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>1310</v>
       </c>
@@ -2252,7 +2249,7 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6432" windowHeight="2316"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +97,18 @@
     <t>身上着火的地狱犬</t>
   </si>
   <si>
+    <t>火球</t>
+  </si>
+  <si>
+    <t>SmallMonster</t>
+  </si>
+  <si>
+    <t>MiddleMonster</t>
+  </si>
+  <si>
+    <t>BigMonster</t>
+  </si>
+  <si>
     <t>英雄</t>
   </si>
   <si>
@@ -275,6 +287,12 @@
   </si>
   <si>
     <t>礌石少年攻击特效</t>
+  </si>
+  <si>
+    <t>敌人死亡特效</t>
+  </si>
+  <si>
+    <t>EnemyDeadEffect</t>
   </si>
 </sst>
 </file>
@@ -282,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -315,16 +333,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,8 +347,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +364,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,10 +392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,34 +424,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,7 +447,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,6 +469,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,20 +483,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -481,13 +499,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +571,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,127 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,21 +690,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,6 +704,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,11 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +752,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,160 +790,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,24 +1304,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M35"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.87962962962963" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.12962962962963" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.37962962962963" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.88333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.13333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.38333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.37962962962963" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.12962962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.38333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.13333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="16384" width="9" style="2"/>
@@ -1503,127 +1521,125 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>1101</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="1">
         <v>20</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="2"/>
       <c r="C9" s="1">
-        <v>1102</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I9" s="1">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <v>60</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="2"/>
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1301</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>1103</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>20</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K10" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1302</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1">
         <v>20</v>
@@ -1642,22 +1658,22 @@
     <row r="12" spans="2:13">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1">
         <v>20</v>
@@ -1666,32 +1682,32 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D13" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1">
         <v>20</v>
@@ -1703,29 +1719,29 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>1201</v>
+        <v>1104</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I14" s="1">
         <v>20</v>
@@ -1734,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1744,22 +1760,22 @@
     <row r="15" spans="2:13">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>1202</v>
+        <v>1105</v>
       </c>
       <c r="D15" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I15" s="1">
         <v>20</v>
@@ -1768,31 +1784,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>1203</v>
+        <v>1106</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="1">
@@ -1802,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1812,22 +1828,22 @@
     <row r="17" spans="2:13">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D17" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1">
         <v>20</v>
@@ -1846,25 +1862,25 @@
     <row r="18" spans="2:13">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1880,22 +1896,22 @@
     <row r="19" spans="2:13">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D19" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1">
         <v>20</v>
@@ -1914,25 +1930,25 @@
     <row r="20" spans="2:13">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>1301</v>
+        <v>1204</v>
       </c>
       <c r="D20" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1948,25 +1964,25 @@
     <row r="21" spans="2:13">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>1302</v>
+        <v>1205</v>
       </c>
       <c r="D21" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1982,25 +1998,25 @@
     <row r="22" spans="2:13">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>1303</v>
+        <v>1206</v>
       </c>
       <c r="D22" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2016,22 +2032,22 @@
     <row r="23" spans="2:13">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D23" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2050,22 +2066,22 @@
     <row r="24" spans="2:13">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D24" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -2084,22 +2100,22 @@
     <row r="25" spans="2:13">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D25" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -2118,22 +2134,22 @@
     <row r="26" spans="2:13">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2152,22 +2168,22 @@
     <row r="27" spans="2:13">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D27" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2186,25 +2202,25 @@
     <row r="28" spans="2:13">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D28" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I28" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2220,80 +2236,170 @@
     <row r="29" spans="2:13">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
+        <v>1307</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1308</v>
+      </c>
+      <c r="D30" s="1">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>1309</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>1310</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D32" s="1">
         <v>23</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="3:11">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="1">
+        <v>1311</v>
+      </c>
+      <c r="D33" s="1">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="1"/>
@@ -2317,6 +2423,39 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -293,6 +293,57 @@
   </si>
   <si>
     <t>EnemyDeadEffect</t>
+  </si>
+  <si>
+    <t>水牛</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>可高速攻击</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>攻击造成随机伤害</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>Rebbit</t>
+  </si>
+  <si>
+    <t>造成范围伤害</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>星级每+1，攻击目标+1，同时造成额外闪电伤害</t>
+  </si>
+  <si>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>Octopus</t>
+  </si>
+  <si>
+    <t>有几率被激怒，获得大量加成。在再次被激怒前休息。Boss出现后总是被激怒。</t>
+  </si>
+  <si>
+    <t>水牛武器</t>
+  </si>
+  <si>
+    <t>BuffaloWeapon</t>
   </si>
 </sst>
 </file>
@@ -301,8 +352,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -333,8 +384,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,11 +405,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,23 +441,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,61 +506,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,24 +521,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,61 +550,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,121 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,45 +741,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -751,16 +763,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +783,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -790,151 +832,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1319,7 +1370,7 @@
     <col min="5" max="5" width="7.38333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.3833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.38333333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.13333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="2" customWidth="1"/>
@@ -1523,7 +1574,6 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -2401,60 +2451,209 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="3:11">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="3:11">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="3:11">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="3:11">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+    <row r="34" spans="2:13">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>1107</v>
+      </c>
+      <c r="D34" s="1">
+        <v>28</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="1">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>35</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>1108</v>
+      </c>
+      <c r="D35" s="1">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>1109</v>
+      </c>
+      <c r="D36" s="1">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="1">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>1110</v>
+      </c>
+      <c r="D37" s="1">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="1">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>35</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D38" s="1">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="1">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>35</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>1207</v>
+      </c>
+      <c r="D39" s="1">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="1">
+        <v>20</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>#</t>
   </si>
@@ -344,6 +344,30 @@
   </si>
   <si>
     <t>BuffaloWeapon</t>
+  </si>
+  <si>
+    <t>狐狸武器</t>
+  </si>
+  <si>
+    <t>FoxWeapon</t>
+  </si>
+  <si>
+    <t>兔子武器</t>
+  </si>
+  <si>
+    <t>RebbitWeapon</t>
+  </si>
+  <si>
+    <t>兔子技能武器</t>
+  </si>
+  <si>
+    <t>RebbitSkillWeapon</t>
+  </si>
+  <si>
+    <t>兔子技能特效</t>
+  </si>
+  <si>
+    <t>RebbitSkillEffect</t>
   </si>
 </sst>
 </file>
@@ -351,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -384,6 +408,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -391,8 +430,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,8 +482,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,20 +507,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -443,38 +515,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -497,30 +537,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -550,187 +574,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,41 +768,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,9 +794,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,10 +850,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -836,156 +860,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,10 +1379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1868,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -2549,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -2654,6 +2678,142 @@
         <v>0</v>
       </c>
       <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>1208</v>
+      </c>
+      <c r="D40" s="1">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D41" s="1">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1312</v>
+      </c>
+      <c r="D42" s="1">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>1313</v>
+      </c>
+      <c r="D43" s="1">
+        <v>37</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>RebbitSkillEffect</t>
+  </si>
+  <si>
+    <t>豹子武器</t>
+  </si>
+  <si>
+    <t>CheetahWeapon</t>
+  </si>
+  <si>
+    <t>豹子普通子弹</t>
+  </si>
+  <si>
+    <t>豹子武器特效</t>
+  </si>
+  <si>
+    <t>CheetahWeaponEffect</t>
+  </si>
+  <si>
+    <t>豹子普通子弹特效</t>
+  </si>
+  <si>
+    <t>Boss死亡特效</t>
+  </si>
+  <si>
+    <t>BossDeadEffect</t>
   </si>
 </sst>
 </file>
@@ -376,8 +400,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -408,56 +432,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,7 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,17 +477,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +514,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -537,8 +537,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,6 +568,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -574,187 +598,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,11 +792,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,41 +853,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,168 +875,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2815,6 +2839,106 @@
       </c>
       <c r="M43" s="1"/>
     </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>1210</v>
+      </c>
+      <c r="D44" s="1">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="1">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>1314</v>
+      </c>
+      <c r="D45" s="1">
+        <v>39</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="1">
+        <v>1315</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
   <si>
     <t>#</t>
   </si>
@@ -331,13 +331,13 @@
     <t>星级每+1，攻击目标+1，同时造成额外闪电伤害</t>
   </si>
   <si>
-    <t>章鱼</t>
-  </si>
-  <si>
-    <t>Octopus</t>
-  </si>
-  <si>
-    <t>有几率被激怒，获得大量加成。在再次被激怒前休息。Boss出现后总是被激怒。</t>
+    <t>黑猫</t>
+  </si>
+  <si>
+    <t>BlackCat</t>
+  </si>
+  <si>
+    <t>合体时召唤怪物到对方场地，击杀怪物会给召唤者提供法力值。</t>
   </si>
   <si>
     <t>水牛武器</t>
@@ -392,6 +392,24 @@
   </si>
   <si>
     <t>BossDeadEffect</t>
+  </si>
+  <si>
+    <t>黑猫武器</t>
+  </si>
+  <si>
+    <t>BlackCatWeapon</t>
+  </si>
+  <si>
+    <t>黑猫普通子弹</t>
+  </si>
+  <si>
+    <t>黑猫武器特效</t>
+  </si>
+  <si>
+    <t>BlackCatWeaponEffect</t>
+  </si>
+  <si>
+    <t>黑猫普通子弹特效</t>
   </si>
 </sst>
 </file>
@@ -399,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -432,15 +450,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,23 +464,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,8 +509,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,16 +564,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,7 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,34 +588,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -598,13 +616,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,19 +730,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,139 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,35 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -855,7 +844,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +864,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -889,151 +887,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2690,7 +2708,7 @@
         <v>53</v>
       </c>
       <c r="I39" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2724,7 +2742,7 @@
         <v>53</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2758,7 +2776,7 @@
         <v>53</v>
       </c>
       <c r="I41" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2860,7 +2878,7 @@
         <v>120</v>
       </c>
       <c r="I44" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -2938,6 +2956,74 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>1211</v>
+      </c>
+      <c r="D47" s="1">
+        <v>41</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>1316</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
